--- a/medicine/Pharmacie/Chronologie_de_la_santé_et_de_la_médecine/Chronologie_de_la_santé_et_de_la_médecine.xlsx
+++ b/medicine/Pharmacie/Chronologie_de_la_santé_et_de_la_médecine/Chronologie_de_la_santé_et_de_la_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette chronologie de la santé et de la médecine  est un index qui renvoie aux articles de l'encyclopédie dont le sujet est en rapport avec l'un ou l'autre de ces deux thèmes : la santé et la médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Autres chronologies thématiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aéronautique
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,7 +576,9 @@
           <t>Accès par siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 XXIe
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,6 +621,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,6 +649,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,6 +677,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,6 +705,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -690,7 +714,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,6 +733,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -716,7 +742,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -735,6 +761,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -742,7 +770,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,6 +789,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -768,7 +798,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -787,6 +817,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,7 +826,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,6 +845,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -820,7 +854,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -839,6 +873,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -846,7 +882,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chronologie_de_la_sant%C3%A9_et_de_la_m%C3%A9decine</t>
+          <t>Chronologie_de_la_santé_et_de_la_médecine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -864,7 +900,9 @@
           <t>XIe siècle</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de l’histoire   Portail de la médecine   Portail de la pharmacie                   </t>
         </is>
